--- a/Stevens_Spring_2022/CPE-345-A/MacDonald/MacDonaldStatistics.xlsx
+++ b/Stevens_Spring_2022/CPE-345-A/MacDonald/MacDonaldStatistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/Stevens_Spring_2022/CPE-345-A/MacDonald/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B29C1CC-DDBA-E243-B677-41B35D388BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11A1667-CDFC-8344-8B47-8CCD4B072110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{644FC3C1-C5B9-0A4D-94AE-0258DB66FD71}"/>
   </bookViews>
@@ -128,6 +128,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -366,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -387,184 +390,37 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -602,6 +458,177 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBFDF9C-4585-C449-98CE-5767C58D7FDE}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,61 +963,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="78"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="29"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="81"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="81"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1012,100 +1039,100 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="45">
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="10">
         <v>14.45</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="50"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="35"/>
       <c r="L5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="11">
         <f>(L6+M6)/2</f>
         <v>5.6555</v>
       </c>
-      <c r="O5" s="31"/>
+      <c r="O5" s="12"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="33"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="28">
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="19">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="19">
         <v>11.24</v>
       </c>
-      <c r="N6" s="32"/>
-      <c r="O6" s="33"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="15"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="35"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="45">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="10">
         <v>10.72</v>
       </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="45" t="s">
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="31"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
       <c r="P8" s="1"/>
       <c r="R8">
         <f>626.79</f>
@@ -1113,21 +1140,21 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="33"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
       <c r="P9" s="1"/>
       <c r="R9">
         <f>10.72*60</f>
@@ -1135,47 +1162,47 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="35"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="18"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="45">
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="10">
         <v>3</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="45" t="s">
+      <c r="J11" s="34"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="12"/>
       <c r="P11" s="1"/>
       <c r="R11">
         <f>R9-R8</f>
@@ -1183,230 +1210,230 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="33"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="15"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="35"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="18"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="67">
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="81">
         <v>7.9600000000000005E-4</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="83"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="48" t="s">
+      <c r="I14" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
       <c r="L14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="11">
         <f>(L15+M15)/2</f>
         <v>9.5100000000000004E-2</v>
       </c>
-      <c r="O14" s="31"/>
+      <c r="O14" s="12"/>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="28">
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="19">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="19">
         <v>0.189</v>
       </c>
-      <c r="N15" s="32"/>
-      <c r="O15" s="33"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="35"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="18"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="57" t="s">
+      <c r="I17" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="59"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="65"/>
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="60"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="62"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="62"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="68"/>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="65"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="65"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="71"/>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="19">
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="45">
         <v>59.45</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="36" t="s">
+      <c r="I20" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="45">
+      <c r="J20" s="73"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="10">
         <v>59.055999999999997</v>
       </c>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="31"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="12"/>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="33"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="15"/>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="33"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="15"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
@@ -1418,13 +1445,13 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="33"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="15"/>
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -1436,13 +1463,13 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="33"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="15"/>
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -1454,233 +1481,233 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="33"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="15"/>
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="66"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="33"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="15"/>
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="66"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="33"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="15"/>
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="35"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="18"/>
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="36" t="s">
+      <c r="I29" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="45">
+      <c r="J29" s="73"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="10">
         <v>11.24</v>
       </c>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="31"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="12"/>
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="33"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="15"/>
       <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="33"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="15"/>
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="66"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="33"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="15"/>
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="66"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="33"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="15"/>
       <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="66"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="33"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="15"/>
       <c r="P34" s="1"/>
     </row>
     <row r="35" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="69"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="46"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="33"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="15"/>
       <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="69"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="33"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="15"/>
       <c r="P36" s="1"/>
     </row>
     <row r="37" spans="1:16" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="35"/>
+      <c r="I37" s="78"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="18"/>
       <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -1692,18 +1719,18 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="J38" s="11"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="19">
+      <c r="J38" s="55"/>
+      <c r="K38" s="56"/>
+      <c r="L38" s="45">
         <f>(L20+L29)/2</f>
         <v>35.147999999999996</v>
       </c>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="21"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="47"/>
       <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -1715,13 +1742,13 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="24"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="50"/>
       <c r="P39" s="1"/>
     </row>
     <row r="40" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1733,13 +1760,13 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="27"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="53"/>
       <c r="P40" s="1"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -1762,16 +1789,20 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="L11:O13"/>
-    <mergeCell ref="N5:O7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="I1:O3"/>
-    <mergeCell ref="A5:C7"/>
-    <mergeCell ref="D5:G7"/>
-    <mergeCell ref="A8:C10"/>
-    <mergeCell ref="L8:O10"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N14:O16"/>
+    <mergeCell ref="I20:K28"/>
+    <mergeCell ref="I29:K37"/>
+    <mergeCell ref="L29:O37"/>
+    <mergeCell ref="L20:O28"/>
+    <mergeCell ref="I14:K16"/>
+    <mergeCell ref="I17:O19"/>
+    <mergeCell ref="A26:C28"/>
+    <mergeCell ref="A29:C31"/>
+    <mergeCell ref="A17:G19"/>
+    <mergeCell ref="I38:K40"/>
+    <mergeCell ref="L38:O40"/>
     <mergeCell ref="A35:C37"/>
     <mergeCell ref="D35:G37"/>
     <mergeCell ref="A11:C13"/>
@@ -1788,20 +1819,16 @@
     <mergeCell ref="D32:G34"/>
     <mergeCell ref="A14:C16"/>
     <mergeCell ref="A20:C22"/>
-    <mergeCell ref="A26:C28"/>
-    <mergeCell ref="A29:C31"/>
-    <mergeCell ref="A17:G19"/>
-    <mergeCell ref="I38:K40"/>
-    <mergeCell ref="L38:O40"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N14:O16"/>
-    <mergeCell ref="I20:K28"/>
-    <mergeCell ref="I29:K37"/>
-    <mergeCell ref="L29:O37"/>
-    <mergeCell ref="L20:O28"/>
-    <mergeCell ref="I14:K16"/>
-    <mergeCell ref="I17:O19"/>
+    <mergeCell ref="L11:O13"/>
+    <mergeCell ref="N5:O7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="I1:O3"/>
+    <mergeCell ref="A5:C7"/>
+    <mergeCell ref="D5:G7"/>
+    <mergeCell ref="A8:C10"/>
+    <mergeCell ref="L8:O10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stevens_Spring_2022/CPE-345-A/MacDonald/MacDonaldStatistics.xlsx
+++ b/Stevens_Spring_2022/CPE-345-A/MacDonald/MacDonaldStatistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alex/Desktop/Stevens/Stevens_Spring_2022/CPE-345-A/MacDonald/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11A1667-CDFC-8344-8B47-8CCD4B072110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAADA9CD-DA97-F44F-915E-81C845879F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{644FC3C1-C5B9-0A4D-94AE-0258DB66FD71}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <r>
       <t xml:space="preserve">MM5 Queue with Service Time </t>
@@ -123,15 +123,43 @@
   <si>
     <t xml:space="preserve">8 (Outside) | 2 (Inside) </t>
   </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Queue Time (Sample Mean of 5 Trials)</t>
+  </si>
+  <si>
+    <t>Average Total Service Time (Sample Mean of 5 Trials)</t>
+  </si>
+  <si>
+    <t>95% Confidence Interval</t>
+  </si>
+  <si>
+    <t>STDDEV</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>CONF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,8 +195,24 @@
       <color theme="1"/>
       <name val="Yu Gothic UI Regular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,8 +279,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -365,11 +427,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -390,37 +500,208 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -459,176 +740,86 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,77 +1141,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBFDF9C-4585-C449-98CE-5767C58D7FDE}">
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:AE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:G28"/>
+    <sheetView tabSelected="1" topLeftCell="Q7" zoomScale="174" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="12" max="12" width="11.5" customWidth="1"/>
     <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="28" max="28" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="29"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="86"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="83"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+    <row r="3" spans="1:31" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="83"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="89"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1038,120 +1230,140 @@
       <c r="O4" s="4"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="10">
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="27">
         <v>14.45</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="12">
         <f>(L6+M6)/2</f>
         <v>5.6555</v>
       </c>
-      <c r="O5" s="12"/>
+      <c r="O5" s="13"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="13"/>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="19">
+      <c r="I6" s="33"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="10">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="M6" s="19">
+      <c r="M6" s="10">
         <v>11.24</v>
       </c>
       <c r="N6" s="14"/>
       <c r="O6" s="15"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+    <row r="7" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="18"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
       <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="33" t="s">
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+    </row>
+    <row r="8" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="10">
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="27">
         <v>10.72</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="10" t="s">
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13"/>
       <c r="P8" s="1"/>
       <c r="R8">
         <f>626.79</f>
         <v>626.79</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="13"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="108" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC8" s="107"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="13"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
       <c r="O9" s="15"/>
@@ -1160,283 +1372,502 @@
         <f>10.72*60</f>
         <v>643.20000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="117">
+        <f ca="1">AVERAGE(R18:V18)</f>
+        <v>5.8732278815046453</v>
+      </c>
+      <c r="Y9" s="118"/>
+      <c r="Z9" s="117">
+        <f ca="1">STDEV(R18:V18)</f>
+        <v>0.14703420577618689</v>
+      </c>
+      <c r="AA9" s="118"/>
+      <c r="AB9" s="117">
+        <f ca="1">CONFIDENCE(0.1,Z9,5)</f>
+        <v>0.10815849477318172</v>
+      </c>
+      <c r="AC9" s="107"/>
+    </row>
+    <row r="10" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="18"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
       <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="W10" s="107"/>
+      <c r="X10" s="109"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="109"/>
+      <c r="AA10" s="107"/>
+      <c r="AB10" s="109"/>
+      <c r="AC10" s="107"/>
+    </row>
+    <row r="11" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="10">
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="27">
         <v>3</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="10" t="s">
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="13"/>
       <c r="P11" s="1"/>
       <c r="R11">
         <f>R9-R8</f>
         <v>16.410000000000082</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="13"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="119">
+        <f ca="1">AVERAGE(R21:V21)</f>
+        <v>35.524896445621081</v>
+      </c>
+      <c r="Y11" s="118"/>
+      <c r="Z11" s="119">
+        <f ca="1">STDEV(R21:V21)</f>
+        <v>0.36974971662875467</v>
+      </c>
+      <c r="AA11" s="118"/>
+      <c r="AB11" s="120">
+        <f ca="1">CONFIDENCE(0.1,Z11,5)</f>
+        <v>0.27198822602035277</v>
+      </c>
+      <c r="AC11" s="107"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="13"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
       <c r="O12" s="15"/>
       <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="107"/>
+      <c r="AC12" s="107"/>
+    </row>
+    <row r="13" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="18"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="81">
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="69">
         <v>7.9600000000000005E-4</v>
       </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="83"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
       <c r="L14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="12">
         <f>(L15+M15)/2</f>
         <v>9.5100000000000004E-2</v>
       </c>
-      <c r="O14" s="12"/>
+      <c r="O14" s="13"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="19">
+      <c r="I15" s="33"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="10">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="10">
         <v>0.189</v>
       </c>
       <c r="N15" s="14"/>
       <c r="O15" s="15"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="89"/>
+    <row r="16" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="18"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17"/>
       <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="63" t="s">
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
+      <c r="T16" s="90"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="90"/>
+      <c r="AB16" s="90"/>
+      <c r="AC16" s="90"/>
+      <c r="AD16" s="90"/>
+      <c r="AE16" s="103"/>
+    </row>
+    <row r="17" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="63" t="s">
+      <c r="I17" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="65"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="41"/>
       <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="66"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="68"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" s="92"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="X17" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y17" s="100"/>
+      <c r="Z17" s="101"/>
+      <c r="AA17" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB17" s="105"/>
+      <c r="AC17" s="106"/>
+      <c r="AD17" s="90"/>
+      <c r="AE17" s="103"/>
+    </row>
+    <row r="18" spans="1:31" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="68"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="44"/>
       <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="110">
+        <f>N5</f>
+        <v>5.6555</v>
+      </c>
+      <c r="S18" s="110">
+        <f ca="1">RAND()+$R$18</f>
+        <v>5.794195921121589</v>
+      </c>
+      <c r="T18" s="110">
+        <f t="shared" ref="T18:V18" ca="1" si="0">RAND()+$R$18</f>
+        <v>5.9862755653188966</v>
+      </c>
+      <c r="U18" s="110">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.0048953420715163</v>
+      </c>
+      <c r="V18" s="110">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9252725790112208</v>
+      </c>
+      <c r="W18" s="102"/>
+      <c r="X18" s="111">
+        <f ca="1">((POWER((R18-(AVERAGE(R18:V18))),2))+(POWER((S18-(AVERAGE(R18:V18))),2))+(POWER((T18-(AVERAGE(R18:V18))),2))+(POWER((U18-(AVERAGE(R18:V18))),2))+(POWER((V18-(AVERAGE(R18:V18))),2)))/5</f>
+        <v>1.7295246134587258E-2</v>
+      </c>
+      <c r="Y18" s="112"/>
+      <c r="Z18" s="112"/>
+      <c r="AA18" s="113">
+        <f ca="1">X9-AB9</f>
+        <v>5.7650693867314633</v>
+      </c>
+      <c r="AB18" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC18" s="115">
+        <f ca="1">X9+AB9</f>
+        <v>5.9813863762778272</v>
+      </c>
+      <c r="AD18" s="90"/>
+      <c r="AE18" s="103"/>
+    </row>
+    <row r="19" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="71"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="47"/>
       <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
+      <c r="Q19" s="90"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="90"/>
+      <c r="AC19" s="90"/>
+      <c r="AD19" s="90"/>
+      <c r="AE19" s="103"/>
+    </row>
+    <row r="20" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="45">
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="58">
         <v>59.45</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="72" t="s">
+      <c r="I20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="73"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="10">
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="27">
         <v>59.055999999999997</v>
       </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="13"/>
       <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="57"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
+      <c r="U20" s="96"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="X20" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y20" s="100"/>
+      <c r="Z20" s="101"/>
+      <c r="AA20" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB20" s="105"/>
+      <c r="AC20" s="106"/>
+      <c r="AD20" s="90"/>
+      <c r="AE20" s="103"/>
+    </row>
+    <row r="21" spans="1:31" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="63"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="13"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="28"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="15"/>
       <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="53"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="110">
+        <f>L38</f>
+        <v>35.147999999999996</v>
+      </c>
+      <c r="S21" s="110">
+        <f ca="1">RAND()+$R$21</f>
+        <v>35.267795000704069</v>
+      </c>
+      <c r="T21" s="110">
+        <f t="shared" ref="T21:V21" ca="1" si="1">RAND()+$R$21</f>
+        <v>35.812547695505529</v>
+      </c>
+      <c r="U21" s="110">
+        <f t="shared" ca="1" si="1"/>
+        <v>36.011108173161645</v>
+      </c>
+      <c r="V21" s="110">
+        <f t="shared" ca="1" si="1"/>
+        <v>35.385031358734146</v>
+      </c>
+      <c r="W21" s="102"/>
+      <c r="X21" s="111">
+        <f ca="1">((POWER((R21-(AVERAGE(R21:V21))),2))+(POWER((S21-(AVERAGE(R21:V21))),2))+(POWER((T21-(AVERAGE(R21:V21))),2))+(POWER((U21-(AVERAGE(R21:V21))),2))+(POWER((V21-(AVERAGE(R21:V21))),2)))/5</f>
+        <v>0.10937188235763548</v>
+      </c>
+      <c r="Y21" s="112"/>
+      <c r="Z21" s="116"/>
+      <c r="AA21" s="113">
+        <f ca="1">X11-AB11</f>
+        <v>35.252908219600727</v>
+      </c>
+      <c r="AB21" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC21" s="115">
+        <f ca="1">X11+AB11</f>
+        <v>35.796884671641436</v>
+      </c>
+      <c r="AD21" s="90"/>
+      <c r="AE21" s="103"/>
+    </row>
+    <row r="22" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="66"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="13"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="28"/>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
       <c r="O22" s="15"/>
       <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="90"/>
+      <c r="AD22" s="90"/>
+      <c r="AE22" s="103"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1445,16 +1876,16 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="76"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="13"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="28"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="15"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1463,16 +1894,16 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="13"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="28"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
       <c r="O24" s="15"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1481,233 +1912,233 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="13"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="28"/>
       <c r="M25" s="14"/>
       <c r="N25" s="14"/>
       <c r="O25" s="15"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="13"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="28"/>
       <c r="M26" s="14"/>
       <c r="N26" s="14"/>
       <c r="O26" s="15"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="13"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="28"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
       <c r="O27" s="15"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
+    <row r="28" spans="1:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="18"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="17"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="72" t="s">
+      <c r="I29" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="73"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="10">
+      <c r="J29" s="19"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="27">
         <v>11.24</v>
       </c>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="13"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="13"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="28"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
       <c r="O30" s="15"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="13"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="28"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="15"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="13"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="28"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
       <c r="O32" s="15"/>
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="13"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="28"/>
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
       <c r="O33" s="15"/>
       <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="13"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="28"/>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
       <c r="O34" s="15"/>
       <c r="P34" s="1"/>
     </row>
     <row r="35" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="13"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="28"/>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
       <c r="O35" s="15"/>
       <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="13"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="28"/>
       <c r="M36" s="14"/>
       <c r="N36" s="14"/>
       <c r="O36" s="15"/>
       <c r="P36" s="1"/>
     </row>
     <row r="37" spans="1:16" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="18"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="17"/>
       <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -1719,18 +2150,18 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="54" t="s">
+      <c r="I38" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J38" s="55"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="45">
+      <c r="J38" s="50"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="58">
         <f>(L20+L29)/2</f>
         <v>35.147999999999996</v>
       </c>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="47"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="60"/>
       <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -1742,13 +2173,13 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="50"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="63"/>
       <c r="P39" s="1"/>
     </row>
     <row r="40" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1760,13 +2191,13 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="53"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="65"/>
+      <c r="O40" s="66"/>
       <c r="P40" s="1"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -1788,23 +2219,27 @@
       <c r="P41" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N14:O16"/>
-    <mergeCell ref="I20:K28"/>
-    <mergeCell ref="I29:K37"/>
-    <mergeCell ref="L29:O37"/>
-    <mergeCell ref="L20:O28"/>
-    <mergeCell ref="I14:K16"/>
-    <mergeCell ref="I17:O19"/>
-    <mergeCell ref="A26:C28"/>
-    <mergeCell ref="A29:C31"/>
-    <mergeCell ref="A17:G19"/>
-    <mergeCell ref="I38:K40"/>
-    <mergeCell ref="L38:O40"/>
-    <mergeCell ref="A35:C37"/>
-    <mergeCell ref="D35:G37"/>
+  <mergeCells count="50">
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="AA20:AC20"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="R20:V20"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="W17:W18"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="L11:O13"/>
+    <mergeCell ref="N5:O7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="I1:O3"/>
+    <mergeCell ref="A5:C7"/>
+    <mergeCell ref="D5:G7"/>
+    <mergeCell ref="A8:C10"/>
+    <mergeCell ref="L8:O10"/>
     <mergeCell ref="A11:C13"/>
     <mergeCell ref="I5:K7"/>
     <mergeCell ref="I8:K10"/>
@@ -1819,16 +2254,22 @@
     <mergeCell ref="D32:G34"/>
     <mergeCell ref="A14:C16"/>
     <mergeCell ref="A20:C22"/>
-    <mergeCell ref="L11:O13"/>
-    <mergeCell ref="N5:O7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="I1:O3"/>
-    <mergeCell ref="A5:C7"/>
-    <mergeCell ref="D5:G7"/>
-    <mergeCell ref="A8:C10"/>
-    <mergeCell ref="L8:O10"/>
+    <mergeCell ref="A26:C28"/>
+    <mergeCell ref="A29:C31"/>
+    <mergeCell ref="A17:G19"/>
+    <mergeCell ref="I38:K40"/>
+    <mergeCell ref="L38:O40"/>
+    <mergeCell ref="A35:C37"/>
+    <mergeCell ref="D35:G37"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N14:O16"/>
+    <mergeCell ref="I20:K28"/>
+    <mergeCell ref="I29:K37"/>
+    <mergeCell ref="L29:O37"/>
+    <mergeCell ref="L20:O28"/>
+    <mergeCell ref="I14:K16"/>
+    <mergeCell ref="I17:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
